--- a/app/config/tables/example_members_form/forms/example_members_form/example_members_form.xlsx
+++ b/app/config/tables/example_members_form/forms/example_members_form/example_members_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/custom_members/forms/custom_members/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_members_form\forms\example_members_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="16224" tabRatio="989" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="prompt_types" sheetId="9" r:id="rId8"/>
     <sheet name="initial" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="134">
   <si>
     <t>clause</t>
   </si>
@@ -437,12 +437,15 @@
   </si>
   <si>
     <t>Custom Member</t>
+  </si>
+  <si>
+    <t>example_members_form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -718,6 +721,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -991,22 +997,22 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="3" customWidth="1"/>
     <col min="5" max="5" width="37.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="35.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="35.19921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.796875" style="5" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="20.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2" s="2" t="s">
@@ -1060,7 +1066,7 @@
       <c r="J2" s="10"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1073,7 +1079,7 @@
       <c r="H3"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4" s="2" t="s">
@@ -1095,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5" s="2" t="s">
@@ -1117,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2" t="s">
@@ -1134,7 +1140,7 @@
       <c r="H6"/>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1153,7 @@
       <c r="H7"/>
       <c r="K7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1166,7 @@
       <c r="H8"/>
       <c r="K8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2" t="s">
@@ -1180,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="2" t="s">
@@ -1202,7 +1208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="H11"/>
       <c r="K11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1228,7 +1234,7 @@
       <c r="H12"/>
       <c r="K12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13" s="19" t="s">
@@ -1245,7 +1251,7 @@
       </c>
       <c r="K13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14" s="2" t="s">
@@ -1265,7 +1271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" s="2" t="s">
@@ -1287,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1306,7 @@
       <c r="H16"/>
       <c r="K16"/>
     </row>
-    <row r="17" spans="1:11" ht="144" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="H17"/>
       <c r="K17"/>
     </row>
-    <row r="18" spans="1:11" ht="96" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="93.6" x14ac:dyDescent="0.45">
       <c r="A18"/>
       <c r="C18" s="19" t="s">
         <v>14</v>
@@ -1329,7 +1335,7 @@
       <c r="H18"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -1341,7 +1347,7 @@
       <c r="H19"/>
       <c r="K19"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20"/>
       <c r="C20" s="2" t="s">
         <v>26</v>
@@ -1362,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21"/>
       <c r="C21" s="2" t="s">
         <v>11</v>
@@ -1378,7 +1384,7 @@
       <c r="H21"/>
       <c r="K21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,7 +1395,7 @@
       <c r="H22"/>
       <c r="K22"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23"/>
       <c r="C23" s="2" t="s">
         <v>16</v>
@@ -1403,7 +1409,7 @@
       <c r="H23"/>
       <c r="K23"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24"/>
       <c r="C24" s="2" t="s">
         <v>51</v>
@@ -1422,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1437,7 @@
       <c r="E25"/>
       <c r="K25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1456,18 +1462,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="24" customWidth="1"/>
+    <col min="1" max="1" width="22.296875" style="24" customWidth="1"/>
     <col min="2" max="2" width="23" style="25" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>58</v>
       </c>
@@ -1478,16 +1484,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="24" t="s">
         <v>62</v>
       </c>
@@ -1496,16 +1502,16 @@
       </c>
       <c r="C3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C4"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="24" t="s">
         <v>64</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="24" t="s">
         <v>65</v>
       </c>
@@ -1532,18 +1538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="51.33203125" style="3" customWidth="1"/>
-    <col min="3" max="9" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="2" max="2" width="51.296875" style="3" customWidth="1"/>
+    <col min="3" max="9" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1560,7 +1566,7 @@
       <c r="H1" s="29"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1581,7 @@
       <c r="H2" s="29"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1596,7 @@
       <c r="H3" s="29"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1605,7 +1611,7 @@
       <c r="H4" s="29"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1620,7 +1626,7 @@
       <c r="H5" s="29"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1635,7 +1641,7 @@
       <c r="H6" s="29"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1656,7 @@
       <c r="H7" s="29"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1671,7 @@
       <c r="H8" s="29"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1680,7 +1686,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1695,7 +1701,7 @@
       <c r="H10" s="29"/>
       <c r="I10" s="30"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +1719,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +1733,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="30"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1741,7 +1747,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1755,7 +1761,7 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1783,9 +1789,9 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>68</v>
       </c>
@@ -1796,7 +1802,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1851,7 +1857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1884,7 +1890,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1986,9 +1992,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>93</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2018,9 +2024,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>95</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>98</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -2085,17 +2091,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" customWidth="1"/>
+    <col min="4" max="4" width="23.296875" customWidth="1"/>
+    <col min="5" max="5" width="40.296875" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>105</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>33</v>
       </c>
@@ -2167,9 +2173,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>118</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>119</v>
       </c>
@@ -2185,7 +2191,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>121</v>
       </c>
@@ -2193,7 +2199,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>122</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>123</v>
       </c>
@@ -2209,7 +2215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>124</v>
       </c>
@@ -2217,7 +2223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>125</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>32</v>
       </c>
@@ -2247,9 +2253,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2263,14 +2269,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>128</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>129</v>
       </c>
